--- a/DroneData/Methane_Sampling_Drone.xlsx
+++ b/DroneData/Methane_Sampling_Drone.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/DroneData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2F5B6A-F302-B142-BB0A-B68E90712696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3145A-90A2-914B-9C84-609B58515563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{DA53C151-B7A1-0447-AE54-2B2276AAF1D4}"/>
+    <workbookView xWindow="2740" yWindow="4100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DA53C151-B7A1-0447-AE54-2B2276AAF1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -176,13 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE7C0A2-8305-C949-9A94-EB7F5BC16FCA}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,10 +555,10 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>185</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>187</v>
       </c>
     </row>
@@ -577,10 +576,10 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>292</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>217</v>
       </c>
     </row>
@@ -609,10 +608,10 @@
       <c r="H4" s="3">
         <v>4098.2587709789404</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
         <v>256</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4">
         <v>257</v>
       </c>
     </row>
@@ -635,8 +634,6 @@
       <c r="H5" s="3">
         <v>4092.13500141848</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
       <c r="K5" t="s">
         <v>15</v>
       </c>
@@ -666,10 +663,10 @@
       <c r="H6" s="3">
         <v>4103.0398826599103</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>175</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
         <v>266</v>
       </c>
     </row>
@@ -698,10 +695,10 @@
       <c r="H7" s="3">
         <v>4107.0511131286603</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>200</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>188</v>
       </c>
     </row>
@@ -730,10 +727,10 @@
       <c r="H8" s="3">
         <v>4108.6678123474103</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>178</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>205</v>
       </c>
     </row>
@@ -762,10 +759,10 @@
       <c r="H9" s="3">
         <v>4103.0896873474103</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>231</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>182</v>
       </c>
     </row>
@@ -794,10 +791,10 @@
       <c r="H10" s="3">
         <v>4103.81355379057</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>258</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>172</v>
       </c>
     </row>
@@ -826,10 +823,10 @@
       <c r="H11" s="3">
         <v>4102.6295647531397</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>156</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>275</v>
       </c>
     </row>
@@ -855,10 +852,10 @@
       <c r="H12" s="3">
         <v>4106.2894731793103</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>245</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>276</v>
       </c>
     </row>
@@ -887,10 +884,10 @@
       <c r="H13" s="3">
         <v>4096.0032615661603</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>183</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>230</v>
       </c>
     </row>
@@ -919,10 +916,10 @@
       <c r="H14" s="3">
         <v>4103.7771873474103</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>201</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>224</v>
       </c>
     </row>
@@ -951,10 +948,10 @@
       <c r="H15" s="3">
         <v>4105.85496262172</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>159</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="3">
         <v>209</v>
       </c>
     </row>
@@ -983,10 +980,10 @@
       <c r="H16" s="3">
         <v>4108.3249625069202</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="3">
         <v>269</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>152</v>
       </c>
     </row>
@@ -1012,10 +1009,10 @@
       <c r="H17" s="3">
         <v>4108.3249625069202</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>149</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="3">
         <v>274</v>
       </c>
     </row>
@@ -1023,4 +1020,922 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3F176E-F7F4-B24C-B092-6E51EB1A0F1D}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H6" sqref="F6:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.32792674843252401</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-78.200422413720005</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4098.2587709789404</v>
+      </c>
+      <c r="I6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3">
+        <v>-0.32792674843252401</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-78.200422413720005</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4098.2587709789404</v>
+      </c>
+      <c r="I7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44894</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.327066346071965</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-78.200438087878894</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4092.13500141848</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-0.32628138083995001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-78.200105074865903</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4103.0398826599103</v>
+      </c>
+      <c r="I9">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-0.32628138083995001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-78.200105074865903</v>
+      </c>
+      <c r="H10" s="3">
+        <v>4103.0398826599103</v>
+      </c>
+      <c r="I10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-0.32632383517951402</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-78.199886810107301</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4107.0511131286603</v>
+      </c>
+      <c r="I11" s="3">
+        <v>200</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-0.32632383517951402</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-78.199886810107301</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4107.0511131286603</v>
+      </c>
+      <c r="I12" s="3">
+        <v>188</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-0.32647672109336301</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-78.199444161800898</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4108.6678123474103</v>
+      </c>
+      <c r="I13" s="3">
+        <v>178</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.37083333333333335</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-0.32647672109336301</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-78.199444161800898</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4108.6678123474103</v>
+      </c>
+      <c r="I14" s="3">
+        <v>205</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-0.32678450457782199</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-78.199401078818596</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4103.0896873474103</v>
+      </c>
+      <c r="I15" s="3">
+        <v>231</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-0.32678450457782199</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-78.199401078818596</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4103.0896873474103</v>
+      </c>
+      <c r="I16" s="3">
+        <v>182</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-0.32704065553874401</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-78.199385656116704</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4103.81355379057</v>
+      </c>
+      <c r="I17" s="3">
+        <v>258</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-0.32704065553874401</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-78.199385656116704</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4103.81355379057</v>
+      </c>
+      <c r="I18" s="3">
+        <v>172</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-0.327188386582143</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-78.199328491537102</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4102.6295647531397</v>
+      </c>
+      <c r="I19" s="3">
+        <v>156</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-0.327188386582143</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-78.199328491537102</v>
+      </c>
+      <c r="H20" s="3">
+        <v>4102.6295647531397</v>
+      </c>
+      <c r="I20" s="3">
+        <v>275</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.32724852673739901</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-78.199884630812505</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4106.2894731793103</v>
+      </c>
+      <c r="I21" s="3">
+        <v>245</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.4680555555555555</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.32724852673739901</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-78.199884630812505</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4106.2894731793103</v>
+      </c>
+      <c r="I22" s="3">
+        <v>276</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-0.32809409312934401</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-78.200232060698994</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4096.0032615661603</v>
+      </c>
+      <c r="I23" s="3">
+        <v>183</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-0.32809409312934401</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-78.200232060698994</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4096.0032615661603</v>
+      </c>
+      <c r="I24" s="3">
+        <v>230</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3">
+        <v>-0.32671258784861001</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-78.199797961933697</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4103.7771873474103</v>
+      </c>
+      <c r="I25" s="3">
+        <v>201</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-0.32671258784861001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-78.199797961933697</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4103.7771873474103</v>
+      </c>
+      <c r="I26" s="3">
+        <v>224</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-0.32826558686823398</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-78.200168106777795</v>
+      </c>
+      <c r="H27" s="3">
+        <v>4105.85496262172</v>
+      </c>
+      <c r="I27" s="3">
+        <v>159</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-0.32826558686823398</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-78.200168106777795</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4105.85496262172</v>
+      </c>
+      <c r="I28" s="3">
+        <v>209</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-0.32820192631364598</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-78.199857976360406</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4108.3249625069202</v>
+      </c>
+      <c r="I29" s="3">
+        <v>269</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.41041666666666665</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-0.32820192631364598</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-78.199857976360406</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4108.3249625069202</v>
+      </c>
+      <c r="I30" s="3">
+        <v>152</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-0.32820192631364598</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-78.199857976360406</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4108.3249625069202</v>
+      </c>
+      <c r="I31" s="3">
+        <v>149</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-0.32820192631364598</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-78.199857976360406</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4108.3249625069202</v>
+      </c>
+      <c r="I32" s="3">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DroneData/Methane_Sampling_Drone.xlsx
+++ b/DroneData/Methane_Sampling_Drone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/DroneData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A3145A-90A2-914B-9C84-609B58515563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D195E6-145A-5543-BB3F-A64749A9BA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="4100" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DA53C151-B7A1-0447-AE54-2B2276AAF1D4}"/>
+    <workbookView xWindow="6800" yWindow="3500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{DA53C151-B7A1-0447-AE54-2B2276AAF1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -1024,15 +1024,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3F176E-F7F4-B24C-B092-6E51EB1A0F1D}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="F6:H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,13 +1061,10 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44893</v>
       </c>
@@ -1087,7 +1084,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44893</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44893</v>
       </c>
@@ -1125,7 +1122,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44893</v>
       </c>
@@ -1143,7 +1140,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44894</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44894</v>
       </c>
@@ -1201,7 +1198,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44894</v>
       </c>
@@ -1220,11 +1217,11 @@
       <c r="H8" s="3">
         <v>4092.13500141848</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44894</v>
       </c>
@@ -1253,7 +1250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44894</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44894</v>
       </c>
@@ -1310,9 +1307,8 @@
       <c r="I11" s="3">
         <v>200</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44894</v>
       </c>
@@ -1340,9 +1336,8 @@
       <c r="I12" s="3">
         <v>188</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1370,9 +1365,8 @@
       <c r="I13" s="3">
         <v>178</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44896</v>
       </c>
@@ -1400,9 +1394,8 @@
       <c r="I14" s="3">
         <v>205</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44894</v>
       </c>
@@ -1430,9 +1423,8 @@
       <c r="I15" s="3">
         <v>231</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44894</v>
       </c>
@@ -1460,9 +1452,8 @@
       <c r="I16" s="3">
         <v>182</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44895</v>
       </c>
@@ -1490,9 +1481,8 @@
       <c r="I17" s="3">
         <v>258</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44895</v>
       </c>
@@ -1520,9 +1510,8 @@
       <c r="I18" s="3">
         <v>172</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44895</v>
       </c>
@@ -1550,9 +1539,8 @@
       <c r="I19" s="3">
         <v>156</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44895</v>
       </c>
@@ -1580,9 +1568,8 @@
       <c r="I20" s="3">
         <v>275</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44896</v>
       </c>
@@ -1607,9 +1594,8 @@
       <c r="I21" s="3">
         <v>245</v>
       </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44896</v>
       </c>
@@ -1634,9 +1620,8 @@
       <c r="I22" s="3">
         <v>276</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44894</v>
       </c>
@@ -1664,9 +1649,8 @@
       <c r="I23" s="3">
         <v>183</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44894</v>
       </c>
@@ -1694,9 +1678,8 @@
       <c r="I24" s="3">
         <v>230</v>
       </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44894</v>
       </c>
@@ -1724,9 +1707,8 @@
       <c r="I25" s="3">
         <v>201</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44894</v>
       </c>
@@ -1754,9 +1736,8 @@
       <c r="I26" s="3">
         <v>224</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44895</v>
       </c>
@@ -1784,9 +1765,8 @@
       <c r="I27" s="3">
         <v>159</v>
       </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44895</v>
       </c>
@@ -1814,9 +1794,8 @@
       <c r="I28" s="3">
         <v>209</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44895</v>
       </c>
@@ -1844,9 +1823,8 @@
       <c r="I29" s="3">
         <v>269</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44895</v>
       </c>
@@ -1874,9 +1852,8 @@
       <c r="I30" s="3">
         <v>152</v>
       </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44895</v>
       </c>
@@ -1904,9 +1881,8 @@
       <c r="I31" s="3">
         <v>149</v>
       </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44895</v>
       </c>
